--- a/config_Release/act_ty_fkqjd_config.xlsx
+++ b/config_Release/act_ty_fkqjd_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="platform_or_channel_or_level" sheetId="1" r:id="rId1"/>
@@ -115,6 +115,10 @@
     <t>"",</t>
   </si>
   <si>
+    <t>"金币*300万","银锤*1",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>"金币*</t>
     </r>
@@ -127,7 +131,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>18万","铜锤</t>
+      <t>480万","金锤</t>
     </r>
     <r>
       <rPr>
@@ -154,12 +158,8 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"金币*300万","银锤*1",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"金币*</t>
+    <r>
+      <t>"金币*4</t>
     </r>
     <r>
       <rPr>
@@ -170,7 +170,29 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>480万","金锤</t>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万","铜锤</t>
     </r>
     <r>
       <rPr>
@@ -197,8 +219,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>"金币*4</t>
+    <t>"金币*980万","银锤*1",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"金币*19</t>
     </r>
     <r>
       <rPr>
@@ -209,29 +235,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万","铜锤</t>
+      <t>80万","金锤</t>
     </r>
     <r>
       <rPr>
@@ -258,49 +262,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"金币*980万","银锤*1",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"金币*19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>80万","金锤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1",</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"1980万金币","银锤",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -734,6 +695,23 @@
   <si>
     <t>actp_buy_gift_bag_class_golden_egg_3</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"金币*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>180万","铜锤*1",</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1160,7 +1138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1203,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -1230,7 +1208,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
@@ -1257,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -2357,8 +2335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2411,11 +2389,11 @@
       <c r="C2" s="3">
         <v>18</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>29</v>
+      <c r="D2" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>21</v>
@@ -2443,10 +2421,10 @@
         <v>30</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>21</v>
@@ -2474,10 +2452,10 @@
         <v>48</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>21</v>
@@ -2886,10 +2864,10 @@
         <v>1000235</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -2922,10 +2900,10 @@
         <v>1000236</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -2956,10 +2934,10 @@
         <v>1000237</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="3">
         <v>5</v>
@@ -3441,10 +3419,10 @@
         <v>48</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>21</v>
@@ -3472,10 +3450,10 @@
         <v>98</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>21</v>
@@ -3503,10 +3481,10 @@
         <v>198</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>21</v>
@@ -3591,10 +3569,10 @@
         <v>1000235</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -3627,10 +3605,10 @@
         <v>1000236</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -3661,10 +3639,10 @@
         <v>1000237</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="3">
         <v>5</v>
@@ -3753,10 +3731,10 @@
         <v>98</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>21</v>
@@ -3784,10 +3762,10 @@
         <v>198</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>21</v>
@@ -3815,10 +3793,10 @@
         <v>498</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>21</v>
@@ -3903,10 +3881,10 @@
         <v>1000235</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -3939,10 +3917,10 @@
         <v>1000236</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -3973,10 +3951,10 @@
         <v>1000237</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="3">
         <v>5</v>
